--- a/tasks/task19-21/task19-21.xlsx
+++ b/tasks/task19-21/task19-21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="5280" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,9 +712,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -733,11 +730,27 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="172">
+  <dxfs count="109">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -916,6 +929,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -923,7 +950,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -951,7 +992,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -979,7 +1027,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1007,7 +1062,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1035,203 +1097,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1252,13 +1132,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1267,362 +1140,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5186,7 +4703,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H8:K43">
-    <cfRule type="cellIs" dxfId="171" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="1" operator="greaterThan">
       <formula>124</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5588,7 +5105,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="170" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6277,12 +5794,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="169" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:J33">
-    <cfRule type="cellIs" dxfId="168" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7541,12 +7058,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B25:B29 B1:B16 B18:B22 B32:B1048576">
-    <cfRule type="cellIs" dxfId="167" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="3" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F39 I12:I39 L12:L39 O12:O39">
-    <cfRule type="cellIs" dxfId="166" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8220,12 +7737,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="165" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:J33">
-    <cfRule type="cellIs" dxfId="164" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8972,12 +8489,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="163" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:J33">
-    <cfRule type="cellIs" dxfId="162" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9022,10 +8539,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="24" t="s">
         <v>33</v>
       </c>
@@ -9106,14 +8623,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="24" t="s">
         <v>32</v>
       </c>
@@ -9477,18 +8994,18 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53" t="s">
+      <c r="D36" s="60"/>
+      <c r="E36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53" t="s">
+      <c r="F36" s="59"/>
+      <c r="G36" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="53"/>
+      <c r="H36" s="59"/>
       <c r="I36" s="24" t="s">
         <v>33</v>
       </c>
@@ -11085,212 +10602,212 @@
     <mergeCell ref="E36:F36"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E10">
-    <cfRule type="cellIs" dxfId="161" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="98" priority="42" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G19">
-    <cfRule type="cellIs" dxfId="160" priority="41" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="41" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G23">
-    <cfRule type="cellIs" dxfId="159" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="96" priority="40" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="cellIs" dxfId="158" priority="39" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="39" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31">
-    <cfRule type="cellIs" dxfId="157" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H31">
-    <cfRule type="cellIs" dxfId="156" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="93" priority="37" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I40">
-    <cfRule type="cellIs" dxfId="155" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="92" priority="36" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I44">
-    <cfRule type="cellIs" dxfId="154" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="35" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:I48">
-    <cfRule type="cellIs" dxfId="153" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="90" priority="34" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I52">
-    <cfRule type="cellIs" dxfId="152" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="33" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:J52">
-    <cfRule type="cellIs" dxfId="151" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="32" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:I56">
-    <cfRule type="cellIs" dxfId="150" priority="31" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="31" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:I60">
-    <cfRule type="cellIs" dxfId="149" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="30" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I64">
-    <cfRule type="cellIs" dxfId="148" priority="29" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="85" priority="29" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:I68">
-    <cfRule type="cellIs" dxfId="147" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="28" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:J68">
-    <cfRule type="cellIs" dxfId="146" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="27" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:I72">
-    <cfRule type="cellIs" dxfId="145" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="26" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:I76">
-    <cfRule type="cellIs" dxfId="144" priority="25" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="81" priority="25" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I80">
-    <cfRule type="cellIs" dxfId="143" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="24" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81:I84">
-    <cfRule type="cellIs" dxfId="142" priority="23" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="79" priority="23" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:J84">
-    <cfRule type="cellIs" dxfId="141" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="22" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:I88">
-    <cfRule type="cellIs" dxfId="140" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="21" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:I92">
-    <cfRule type="cellIs" dxfId="139" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="20" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:I96">
-    <cfRule type="cellIs" dxfId="138" priority="19" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="19" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97:I100">
-    <cfRule type="cellIs" dxfId="137" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85:J100">
-    <cfRule type="cellIs" dxfId="136" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="17" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="135" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="134" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="15" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="133" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="14" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="132" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="13" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="131" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="12" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="130" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="11" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="129" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="128" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="9" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="127" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="126" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="7" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="125" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="124" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="123" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="122" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="120" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11302,8 +10819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11311,15 +10828,15 @@
     <col min="1" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="29">
-        <v>61</v>
+      <c r="D1" s="52">
+        <v>77</v>
       </c>
       <c r="F1" s="29">
         <v>77</v>
@@ -11333,13 +10850,16 @@
       <c r="I1" s="29">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="C2" s="55" t="s">
+      <c r="J1" s="29">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="C2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="52">
         <v>1</v>
       </c>
       <c r="F2" s="29">
@@ -11354,14 +10874,17 @@
       <c r="I2" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="C3" s="55" t="s">
+      <c r="J2" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="C3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="29">
-        <v>4</v>
+      <c r="D3" s="52">
+        <v>2</v>
       </c>
       <c r="F3" s="29">
         <v>2</v>
@@ -11375,16 +10898,19 @@
       <c r="I3" s="29">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="J3" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="29">
-        <v>3</v>
+      <c r="D4" s="52">
+        <v>7</v>
       </c>
       <c r="F4" s="29">
         <v>7</v>
@@ -11398,171 +10924,174 @@
       <c r="I4" s="29">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <f>$D$4</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="58">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="57">
+        <v>18</v>
       </c>
       <c r="C7" s="31">
         <f>A7+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="31">
         <f>B7</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="32">
-        <f>MAX(C7:D7)*$D$3+MIN(C7:D7)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E7" s="61">
+        <f>MAX(C7,D7)*$D$3+MIN(C7,D7)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51">
         <f>A7</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="51">
         <f>B7+1</f>
-        <v>5</v>
-      </c>
-      <c r="E8" s="35">
-        <f>MAX(C8:D8)*$D$3+MIN(C8:D8)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E8" s="61">
+        <f t="shared" ref="E8:E10" si="0">MAX(C8,D8)*$D$3+MIN(C8,D8)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51">
         <f>A7*$D$3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="51">
         <f>B7</f>
-        <v>4</v>
-      </c>
-      <c r="E9" s="35">
-        <f>MAX(C9:D9)*$D$3+MIN(C9:D9)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E9" s="61">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37">
         <f>A7</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" s="37">
         <f>B7*$D$3</f>
-        <v>16</v>
-      </c>
-      <c r="E10" s="38">
-        <f>MAX(C10:D10)*$D$3+MIN(C10:D10)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E10" s="61">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="26">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D14" s="26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <f>$D$4</f>
-        <v>3</v>
-      </c>
-      <c r="B16" s="59">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="58">
+        <v>31</v>
       </c>
       <c r="C16" s="30">
         <f>A16+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" s="31">
         <f>B16</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E16" s="31">
         <f>C16+1</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F16" s="31">
         <f>D16</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G16" s="32">
-        <f>MAX(E16:F16)*$D$3+MIN(E16:F16)</f>
-        <v>53</v>
+        <f t="shared" ref="G16:G31" si="1">MAX(E16:F16)*$D$3+MIN(E16:F16)</f>
+        <v>71</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" ref="H16:H30" si="0">F16+E16</f>
-        <v>17</v>
+        <f t="shared" ref="H16:H30" si="2">F16+E16</f>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="33">
         <f>C16+D16</f>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="51">
         <f>C16</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17" s="51">
         <f>D16+1</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G17" s="35">
-        <f>MAX(E17:F17)*$D$3+MIN(E17:F17)</f>
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="H17" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
@@ -11574,15 +11103,15 @@
       </c>
       <c r="F18" s="51">
         <f>D16</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G18" s="35">
-        <f>MAX(E18:F18)*$D$3+MIN(E18:F18)</f>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="H18" s="29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
@@ -11590,68 +11119,68 @@
       <c r="D19" s="37"/>
       <c r="E19" s="37">
         <f>C16</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" s="37">
         <f>D16*$D$3</f>
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G19" s="38">
-        <f>MAX(E19:F19)*$D$3+MIN(E19:F19)</f>
-        <v>196</v>
+        <f t="shared" si="1"/>
+        <v>132</v>
       </c>
       <c r="H19" s="29">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="30">
         <f>A16</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D20" s="31">
         <f>B16+1</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E20" s="31">
         <f>C20+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F20" s="31">
         <f>D20</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G20" s="32">
-        <f>MAX(E20:F20)*$D$3+MIN(E20:F20)</f>
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="H20" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="33">
         <f>C20+D20</f>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="51">
         <f>C20</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F21" s="51">
         <f>D20+1</f>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G21" s="35">
-        <f>MAX(E21:F21)*$D$3+MIN(E21:F21)</f>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="H21" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
@@ -11659,19 +11188,19 @@
       <c r="D22" s="51"/>
       <c r="E22" s="51">
         <f>C20*$D$3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" s="51">
         <f>D20</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G22" s="35">
-        <f>MAX(E22:F22)*$D$3+MIN(E22:F22)</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="H22" s="29">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
@@ -11679,68 +11208,68 @@
       <c r="D23" s="37"/>
       <c r="E23" s="37">
         <f>C20</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F23" s="37">
         <f>D20*$D$3</f>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G23" s="38">
-        <f>MAX(E23:F23)*$D$3+MIN(E23:F23)</f>
-        <v>211</v>
+        <f t="shared" si="1"/>
+        <v>135</v>
       </c>
       <c r="H23" s="29">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="30">
         <f>A16*$D$3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="31">
         <f>B16</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E24" s="31">
         <f>C24+1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F24" s="31">
         <f>D24</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G24" s="32">
-        <f>MAX(E24:F24)*$D$3+MIN(E24:F24)</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="H24" s="29">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="33">
         <f>C24+D24</f>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="51">
         <f>C24</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" s="51">
         <f>D24+1</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G25" s="35">
-        <f>MAX(E25:F25)*$D$3+MIN(E25:F25)</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="H25" s="29">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
@@ -11748,19 +11277,19 @@
       <c r="D26" s="51"/>
       <c r="E26" s="51">
         <f>C24*$D$3</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F26" s="51">
         <f>D24</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G26" s="35">
-        <f>MAX(E26:F26)*$D$3+MIN(E26:F26)</f>
-        <v>204</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="H26" s="29">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
@@ -11768,68 +11297,68 @@
       <c r="D27" s="37"/>
       <c r="E27" s="37">
         <f>C24</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" s="37">
         <f>D24*$D$3</f>
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G27" s="38">
-        <f>MAX(E27:F27)*$D$3+MIN(E27:F27)</f>
-        <v>204</v>
+        <f t="shared" si="1"/>
+        <v>138</v>
       </c>
       <c r="H27" s="29">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="30">
         <f>A16</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D28" s="31">
         <f>B16*$D$3</f>
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E28" s="31">
         <f>C28+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F28" s="31">
         <f>D28</f>
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G28" s="32">
-        <f>MAX(E28:F28)*$D$3+MIN(E28:F28)</f>
-        <v>196</v>
+        <f t="shared" si="1"/>
+        <v>132</v>
       </c>
       <c r="H28" s="29">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="33">
         <f>C28+D28</f>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51">
         <f>C28</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F29" s="51">
         <f>D28+1</f>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G29" s="35">
-        <f>MAX(E29:F29)*$D$3+MIN(E29:F29)</f>
-        <v>199</v>
+        <f t="shared" si="1"/>
+        <v>133</v>
       </c>
       <c r="H29" s="29">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
@@ -11837,19 +11366,19 @@
       <c r="D30" s="51"/>
       <c r="E30" s="51">
         <f>C28*$D$3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" s="51">
         <f>D28</f>
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G30" s="35">
-        <f>MAX(E30:F30)*$D$3+MIN(E30:F30)</f>
-        <v>204</v>
+        <f t="shared" si="1"/>
+        <v>138</v>
       </c>
       <c r="H30" s="29">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
@@ -11857,19 +11386,19 @@
       <c r="D31" s="37"/>
       <c r="E31" s="37">
         <f>C28</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F31" s="37">
         <f>D28*$D$3</f>
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="G31" s="38">
-        <f>MAX(E31:F31)*$D$3+MIN(E31:F31)</f>
-        <v>771</v>
+        <f t="shared" si="1"/>
+        <v>255</v>
       </c>
       <c r="H31" s="29">
         <f>F31+E31</f>
-        <v>195</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -11877,22 +11406,22 @@
         <v>34</v>
       </c>
       <c r="C35" s="26">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53" t="s">
+      <c r="D36" s="60"/>
+      <c r="E36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53" t="s">
+      <c r="F36" s="59"/>
+      <c r="G36" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="53"/>
+      <c r="H36" s="59"/>
       <c r="I36" s="29" t="s">
         <v>33</v>
       </c>
@@ -11900,42 +11429,42 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <f>$D$4</f>
-        <v>3</v>
-      </c>
-      <c r="B37" s="59">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B37" s="58">
+        <v>30</v>
       </c>
       <c r="C37" s="39">
         <f>A37+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D37" s="40">
         <f>B37</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E37" s="30">
         <f>C37+1</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F37" s="31">
         <f>D37</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G37" s="31">
         <f>E37+1</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H37" s="31">
         <f>F37</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I37" s="32">
-        <f>MAX(G37:H37)*$D$3+MIN(G37:H37)</f>
-        <v>58</v>
+        <f t="shared" ref="I37:I68" si="3">MAX(G37:H37)*$D$3+MIN(G37:H37)</f>
+        <v>70</v>
       </c>
       <c r="J37" s="43">
-        <f t="shared" ref="J37:J51" si="1">H37+G37</f>
-        <v>19</v>
+        <f t="shared" ref="J37:J51" si="4">H37+G37</f>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -11943,24 +11472,24 @@
       <c r="D38" s="51"/>
       <c r="E38" s="33">
         <f>E37+F37</f>
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51">
         <f>E37</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H38" s="51">
         <f>F37+1</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I38" s="35">
-        <f>MAX(G38:H38)*$D$3+MIN(G38:H38)</f>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="J38" s="45">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -11970,19 +11499,19 @@
       <c r="F39" s="51"/>
       <c r="G39" s="51">
         <f>E37*$D$3</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H39" s="51">
         <f>F37</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I39" s="35">
-        <f>MAX(G39:H39)*$D$3+MIN(G39:H39)</f>
-        <v>93</v>
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="J39" s="45">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -11992,19 +11521,19 @@
       <c r="F40" s="37"/>
       <c r="G40" s="37">
         <f>E37</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H40" s="37">
         <f>F37*$D$3</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I40" s="38">
-        <f>MAX(G40:H40)*$D$3+MIN(G40:H40)</f>
-        <v>213</v>
+        <f t="shared" si="3"/>
+        <v>129</v>
       </c>
       <c r="J40" s="45">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -12012,27 +11541,27 @@
       <c r="D41" s="51"/>
       <c r="E41" s="30">
         <f>C37</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F41" s="31">
         <f>D37+1</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G41" s="31">
         <f>E41+1</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H41" s="31">
         <f>F41</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I41" s="32">
-        <f>MAX(G41:H41)*$D$3+MIN(G41:H41)</f>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="J41" s="45">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -12040,24 +11569,24 @@
       <c r="D42" s="51"/>
       <c r="E42" s="33">
         <f>E41+F41</f>
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51">
         <f>E41</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H42" s="51">
         <f>F41+1</f>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I42" s="35">
-        <f>MAX(G42:H42)*$D$3+MIN(G42:H42)</f>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="J42" s="45">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -12071,15 +11600,15 @@
       </c>
       <c r="H43" s="51">
         <f>F41</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I43" s="35">
-        <f>MAX(G43:H43)*$D$3+MIN(G43:H43)</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="J43" s="45">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -12089,19 +11618,19 @@
       <c r="F44" s="37"/>
       <c r="G44" s="37">
         <f>E41</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H44" s="37">
         <f>F41*$D$3</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I44" s="38">
-        <f>MAX(G44:H44)*$D$3+MIN(G44:H44)</f>
-        <v>228</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="J44" s="45">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -12113,7 +11642,7 @@
       </c>
       <c r="F45" s="31">
         <f>D37</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G45" s="31">
         <f>E45+1</f>
@@ -12121,15 +11650,15 @@
       </c>
       <c r="H45" s="31">
         <f>F45</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I45" s="32">
-        <f>MAX(G45:H45)*$D$3+MIN(G45:H45)</f>
-        <v>81</v>
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="J45" s="45">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -12137,7 +11666,7 @@
       <c r="D46" s="51"/>
       <c r="E46" s="33">
         <f>E45+F45</f>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51">
@@ -12146,15 +11675,15 @@
       </c>
       <c r="H46" s="51">
         <f>F45+1</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I46" s="35">
-        <f>MAX(G46:H46)*$D$3+MIN(G46:H46)</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="J46" s="45">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -12164,19 +11693,19 @@
       <c r="F47" s="51"/>
       <c r="G47" s="51">
         <f>E45*$D$3</f>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H47" s="51">
         <f>F45</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I47" s="35">
-        <f>MAX(G47:H47)*$D$3+MIN(G47:H47)</f>
-        <v>269</v>
+        <f t="shared" si="3"/>
+        <v>94</v>
       </c>
       <c r="J47" s="45">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -12190,15 +11719,15 @@
       </c>
       <c r="H48" s="37">
         <f>F45*$D$3</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I48" s="38">
-        <f>MAX(G48:H48)*$D$3+MIN(G48:H48)</f>
-        <v>224</v>
+        <f t="shared" si="3"/>
+        <v>136</v>
       </c>
       <c r="J48" s="45">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
@@ -12206,27 +11735,27 @@
       <c r="D49" s="51"/>
       <c r="E49" s="30">
         <f>C37</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F49" s="31">
         <f>D37*$D$3</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G49" s="31">
         <f>E49+1</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H49" s="31">
         <f>F49</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I49" s="32">
-        <f>MAX(G49:H49)*$D$3+MIN(G49:H49)</f>
-        <v>213</v>
+        <f t="shared" si="3"/>
+        <v>129</v>
       </c>
       <c r="J49" s="45">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.25">
@@ -12234,24 +11763,24 @@
       <c r="D50" s="51"/>
       <c r="E50" s="33">
         <f>E49+F49</f>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51">
         <f>E49</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H50" s="51">
         <f>F49+1</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I50" s="35">
-        <f>MAX(G50:H50)*$D$3+MIN(G50:H50)</f>
-        <v>216</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="J50" s="45">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
@@ -12265,15 +11794,15 @@
       </c>
       <c r="H51" s="51">
         <f>F49</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I51" s="35">
-        <f>MAX(G51:H51)*$D$3+MIN(G51:H51)</f>
-        <v>224</v>
+        <f t="shared" si="3"/>
+        <v>136</v>
       </c>
       <c r="J51" s="45">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12283,53 +11812,53 @@
       <c r="F52" s="37"/>
       <c r="G52" s="37">
         <f>E49</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H52" s="37">
         <f>F49*$D$3</f>
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="I52" s="38">
-        <f>MAX(G52:H52)*$D$3+MIN(G52:H52)</f>
-        <v>836</v>
+        <f t="shared" si="3"/>
+        <v>248</v>
       </c>
       <c r="J52" s="50">
         <f>H52+G52</f>
-        <v>212</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <f>A37</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D53" s="40">
         <f>B37+1</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E53" s="30">
         <f>C53+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F53" s="31">
         <f>D53</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G53" s="31">
         <f>E53+1</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H53" s="31">
         <f>F53</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I53" s="32">
-        <f>MAX(G53:H53)*$D$3+MIN(G53:H53)</f>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="J53" s="43">
-        <f t="shared" ref="J53:J67" si="2">H53+G53</f>
-        <v>19</v>
+        <f t="shared" ref="J53:J67" si="5">H53+G53</f>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
@@ -12337,24 +11866,24 @@
       <c r="D54" s="51"/>
       <c r="E54" s="33">
         <f>E53+F53</f>
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51">
         <f>E53</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H54" s="51">
         <f>F53+1</f>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I54" s="35">
-        <f>MAX(G54:H54)*$D$3+MIN(G54:H54)</f>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="J54" s="45">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
@@ -12368,15 +11897,15 @@
       </c>
       <c r="H55" s="51">
         <f>F53</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I55" s="35">
-        <f>MAX(G55:H55)*$D$3+MIN(G55:H55)</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="J55" s="45">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.25">
@@ -12386,19 +11915,19 @@
       <c r="F56" s="37"/>
       <c r="G56" s="37">
         <f>E53</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H56" s="37">
         <f>F53*$D$3</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I56" s="38">
-        <f>MAX(G56:H56)*$D$3+MIN(G56:H56)</f>
-        <v>228</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="J56" s="45">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
@@ -12406,27 +11935,27 @@
       <c r="D57" s="51"/>
       <c r="E57" s="30">
         <f>C53</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F57" s="31">
         <f>D53+1</f>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G57" s="31">
         <f>E57+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H57" s="31">
         <f>F57</f>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I57" s="32">
-        <f>MAX(G57:H57)*$D$3+MIN(G57:H57)</f>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="J57" s="45">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.25">
@@ -12434,24 +11963,24 @@
       <c r="D58" s="51"/>
       <c r="E58" s="33">
         <f>E57+F57</f>
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51">
         <f>E57</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H58" s="51">
         <f>F57+1</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I58" s="35">
-        <f>MAX(G58:H58)*$D$3+MIN(G58:H58)</f>
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>73</v>
       </c>
       <c r="J58" s="45">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
@@ -12461,19 +11990,19 @@
       <c r="F59" s="51"/>
       <c r="G59" s="51">
         <f>E57*$D$3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H59" s="51">
         <f>F57</f>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I59" s="35">
-        <f>MAX(G59:H59)*$D$3+MIN(G59:H59)</f>
-        <v>72</v>
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="J59" s="45">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.25">
@@ -12483,19 +12012,19 @@
       <c r="F60" s="37"/>
       <c r="G60" s="37">
         <f>E57</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H60" s="37">
         <f>F57*$D$3</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I60" s="38">
-        <f>MAX(G60:H60)*$D$3+MIN(G60:H60)</f>
-        <v>243</v>
+        <f t="shared" si="3"/>
+        <v>135</v>
       </c>
       <c r="J60" s="45">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f t="shared" si="5"/>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
@@ -12503,27 +12032,27 @@
       <c r="D61" s="51"/>
       <c r="E61" s="30">
         <f>C53*$D$3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61" s="31">
         <f>D53</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G61" s="31">
         <f>E61+1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H61" s="31">
         <f>F61</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I61" s="32">
-        <f>MAX(G61:H61)*$D$3+MIN(G61:H61)</f>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="J61" s="45">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.25">
@@ -12531,24 +12060,24 @@
       <c r="D62" s="51"/>
       <c r="E62" s="33">
         <f>E61+F61</f>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51">
         <f>E61</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H62" s="51">
         <f>F61+1</f>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I62" s="35">
-        <f>MAX(G62:H62)*$D$3+MIN(G62:H62)</f>
-        <v>72</v>
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="J62" s="45">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
@@ -12558,19 +12087,19 @@
       <c r="F63" s="51"/>
       <c r="G63" s="51">
         <f>E61*$D$3</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H63" s="51">
         <f>F61</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I63" s="35">
-        <f>MAX(G63:H63)*$D$3+MIN(G63:H63)</f>
-        <v>206</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="J63" s="45">
-        <f t="shared" si="2"/>
-        <v>62</v>
+        <f t="shared" si="5"/>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
@@ -12580,19 +12109,19 @@
       <c r="F64" s="37"/>
       <c r="G64" s="37">
         <f>E61</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H64" s="37">
         <f>F61*$D$3</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I64" s="38">
-        <f>MAX(G64:H64)*$D$3+MIN(G64:H64)</f>
-        <v>236</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="J64" s="45">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <f t="shared" si="5"/>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
@@ -12600,27 +12129,27 @@
       <c r="D65" s="51"/>
       <c r="E65" s="30">
         <f>C53</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F65" s="31">
         <f>D53*$D$3</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G65" s="31">
         <f>E65+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H65" s="31">
         <f>F65</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I65" s="32">
-        <f>MAX(G65:H65)*$D$3+MIN(G65:H65)</f>
-        <v>228</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="J65" s="45">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
@@ -12628,24 +12157,24 @@
       <c r="D66" s="51"/>
       <c r="E66" s="33">
         <f>E65+F65</f>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51">
         <f>E65</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H66" s="51">
         <f>F65+1</f>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I66" s="35">
-        <f>MAX(G66:H66)*$D$3+MIN(G66:H66)</f>
-        <v>231</v>
+        <f t="shared" si="3"/>
+        <v>133</v>
       </c>
       <c r="J66" s="45">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
@@ -12655,19 +12184,19 @@
       <c r="F67" s="51"/>
       <c r="G67" s="51">
         <f>E65*$D$3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H67" s="51">
         <f>F65</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I67" s="35">
-        <f>MAX(G67:H67)*$D$3+MIN(G67:H67)</f>
-        <v>236</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="J67" s="45">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <f t="shared" si="5"/>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12677,53 +12206,53 @@
       <c r="F68" s="37"/>
       <c r="G68" s="37">
         <f>E65</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H68" s="37">
         <f>F65*$D$3</f>
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="I68" s="38">
-        <f>MAX(G68:H68)*$D$3+MIN(G68:H68)</f>
-        <v>899</v>
+        <f t="shared" si="3"/>
+        <v>255</v>
       </c>
       <c r="J68" s="50">
         <f>H68+G68</f>
-        <v>227</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69" s="39">
         <f>A37*$D$3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D69" s="40">
         <f>B37</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E69" s="30">
         <f>C69+1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F69" s="31">
         <f>D69</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G69" s="31">
         <f>E69+1</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H69" s="31">
         <f>F69</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I69" s="32">
-        <f>MAX(G69:H69)*$D$3+MIN(G69:H69)</f>
-        <v>69</v>
+        <f t="shared" ref="I69:I100" si="6">MAX(G69:H69)*$D$3+MIN(G69:H69)</f>
+        <v>76</v>
       </c>
       <c r="J69" s="43">
-        <f t="shared" ref="J69:J83" si="3">H69+G69</f>
-        <v>27</v>
+        <f t="shared" ref="J69:J83" si="7">H69+G69</f>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
@@ -12731,24 +12260,24 @@
       <c r="D70" s="51"/>
       <c r="E70" s="33">
         <f>E69+F69</f>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51">
         <f>E69</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H70" s="51">
         <f>F69+1</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I70" s="35">
-        <f>MAX(G70:H70)*$D$3+MIN(G70:H70)</f>
-        <v>69</v>
+        <f t="shared" si="6"/>
+        <v>77</v>
       </c>
       <c r="J70" s="45">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
@@ -12758,19 +12287,19 @@
       <c r="F71" s="51"/>
       <c r="G71" s="51">
         <f>E69*$D$3</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H71" s="51">
         <f>F69</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I71" s="35">
-        <f>MAX(G71:H71)*$D$3+MIN(G71:H71)</f>
-        <v>221</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="J71" s="45">
-        <f t="shared" si="3"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
@@ -12780,19 +12309,19 @@
       <c r="F72" s="37"/>
       <c r="G72" s="37">
         <f>E69</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H72" s="37">
         <f>F69*$D$3</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I72" s="38">
-        <f>MAX(G72:H72)*$D$3+MIN(G72:H72)</f>
-        <v>221</v>
+        <f t="shared" si="6"/>
+        <v>135</v>
       </c>
       <c r="J72" s="45">
-        <f t="shared" si="3"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.25">
@@ -12800,27 +12329,27 @@
       <c r="D73" s="51"/>
       <c r="E73" s="30">
         <f>C69</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73" s="31">
         <f>D69+1</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G73" s="31">
         <f>E73+1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H73" s="31">
         <f>F73</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I73" s="32">
-        <f>MAX(G73:H73)*$D$3+MIN(G73:H73)</f>
-        <v>69</v>
+        <f t="shared" si="6"/>
+        <v>77</v>
       </c>
       <c r="J73" s="45">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
@@ -12828,24 +12357,24 @@
       <c r="D74" s="51"/>
       <c r="E74" s="33">
         <f>E73+F73</f>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51">
         <f>E73</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H74" s="51">
         <f>F73+1</f>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I74" s="35">
-        <f>MAX(G74:H74)*$D$3+MIN(G74:H74)</f>
-        <v>72</v>
+        <f t="shared" si="6"/>
+        <v>78</v>
       </c>
       <c r="J74" s="45">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
@@ -12855,19 +12384,19 @@
       <c r="F75" s="51"/>
       <c r="G75" s="51">
         <f>E73*$D$3</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H75" s="51">
         <f>F73</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I75" s="35">
-        <f>MAX(G75:H75)*$D$3+MIN(G75:H75)</f>
-        <v>206</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="J75" s="45">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
@@ -12877,19 +12406,19 @@
       <c r="F76" s="37"/>
       <c r="G76" s="37">
         <f>E73</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H76" s="37">
         <f>F73*$D$3</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I76" s="38">
-        <f>MAX(G76:H76)*$D$3+MIN(G76:H76)</f>
-        <v>236</v>
+        <f t="shared" si="6"/>
+        <v>138</v>
       </c>
       <c r="J76" s="45">
-        <f t="shared" si="3"/>
-        <v>68</v>
+        <f t="shared" si="7"/>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
@@ -12897,27 +12426,27 @@
       <c r="D77" s="51"/>
       <c r="E77" s="30">
         <f>C69*$D$3</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F77" s="31">
         <f>D69</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G77" s="31">
         <f>E77+1</f>
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H77" s="31">
         <f>F77</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I77" s="32">
-        <f>MAX(G77:H77)*$D$3+MIN(G77:H77)</f>
-        <v>209</v>
+        <f t="shared" si="6"/>
+        <v>89</v>
       </c>
       <c r="J77" s="45">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
@@ -12925,24 +12454,24 @@
       <c r="D78" s="51"/>
       <c r="E78" s="33">
         <f>E77+F77</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51">
         <f>E77</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H78" s="51">
         <f>F77+1</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I78" s="35">
-        <f>MAX(G78:H78)*$D$3+MIN(G78:H78)</f>
-        <v>206</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="J78" s="45">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
@@ -12952,19 +12481,19 @@
       <c r="F79" s="51"/>
       <c r="G79" s="51">
         <f>E77*$D$3</f>
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="H79" s="51">
         <f>F77</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I79" s="35">
-        <f>MAX(G79:H79)*$D$3+MIN(G79:H79)</f>
-        <v>781</v>
+        <f t="shared" si="6"/>
+        <v>142</v>
       </c>
       <c r="J79" s="45">
-        <f t="shared" si="3"/>
-        <v>205</v>
+        <f t="shared" si="7"/>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
@@ -12974,19 +12503,19 @@
       <c r="F80" s="37"/>
       <c r="G80" s="37">
         <f>E77</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H80" s="37">
         <f>F77*$D$3</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I80" s="38">
-        <f>MAX(G80:H80)*$D$3+MIN(G80:H80)</f>
-        <v>256</v>
+        <f t="shared" si="6"/>
+        <v>148</v>
       </c>
       <c r="J80" s="45">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
@@ -12994,27 +12523,27 @@
       <c r="D81" s="51"/>
       <c r="E81" s="30">
         <f>C69</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F81" s="31">
         <f>D69*$D$3</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G81" s="31">
         <f>E81+1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H81" s="31">
         <f>F81</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I81" s="32">
-        <f>MAX(G81:H81)*$D$3+MIN(G81:H81)</f>
-        <v>221</v>
+        <f t="shared" si="6"/>
+        <v>135</v>
       </c>
       <c r="J81" s="45">
-        <f t="shared" si="3"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.25">
@@ -13022,24 +12551,24 @@
       <c r="D82" s="51"/>
       <c r="E82" s="33">
         <f>E81+F81</f>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51">
         <f>E81</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H82" s="51">
         <f>F81+1</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I82" s="35">
-        <f>MAX(G82:H82)*$D$3+MIN(G82:H82)</f>
-        <v>224</v>
+        <f t="shared" si="6"/>
+        <v>136</v>
       </c>
       <c r="J82" s="45">
-        <f t="shared" si="3"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
@@ -13049,19 +12578,19 @@
       <c r="F83" s="51"/>
       <c r="G83" s="51">
         <f>E81*$D$3</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H83" s="51">
         <f>F81</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I83" s="35">
-        <f>MAX(G83:H83)*$D$3+MIN(G83:H83)</f>
-        <v>256</v>
+        <f t="shared" si="6"/>
+        <v>148</v>
       </c>
       <c r="J83" s="45">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13071,19 +12600,19 @@
       <c r="F84" s="37"/>
       <c r="G84" s="37">
         <f>E81</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H84" s="37">
         <f>F81*$D$3</f>
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="I84" s="38">
-        <f>MAX(G84:H84)*$D$3+MIN(G84:H84)</f>
-        <v>844</v>
+        <f t="shared" si="6"/>
+        <v>254</v>
       </c>
       <c r="J84" s="50">
         <f>H84+G84</f>
-        <v>220</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
@@ -13092,7 +12621,7 @@
       </c>
       <c r="D85" s="40">
         <f>B37*$D$3</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E85" s="30">
         <f>C85+1</f>
@@ -13100,7 +12629,7 @@
       </c>
       <c r="F85" s="31">
         <f>D85</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G85" s="31">
         <f>E85+1</f>
@@ -13108,15 +12637,15 @@
       </c>
       <c r="H85" s="31">
         <f>F85</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I85" s="32">
-        <f>MAX(G85:H85)*$D$3+MIN(G85:H85)</f>
-        <v>217</v>
+        <f t="shared" si="6"/>
+        <v>129</v>
       </c>
       <c r="J85" s="43">
-        <f t="shared" ref="J85:J99" si="4">H85+G85</f>
-        <v>61</v>
+        <f t="shared" ref="J85:J99" si="8">H85+G85</f>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
@@ -13124,7 +12653,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="33">
         <f>E85+F85</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51">
@@ -13133,15 +12662,15 @@
       </c>
       <c r="H86" s="51">
         <f>F85+1</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I86" s="35">
-        <f>MAX(G86:H86)*$D$3+MIN(G86:H86)</f>
-        <v>220</v>
+        <f t="shared" si="6"/>
+        <v>130</v>
       </c>
       <c r="J86" s="45">
-        <f t="shared" si="4"/>
-        <v>61</v>
+        <f t="shared" si="8"/>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
@@ -13151,19 +12680,19 @@
       <c r="F87" s="51"/>
       <c r="G87" s="51">
         <f>E85*$D$3</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H87" s="51">
         <f>F85</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I87" s="35">
-        <f>MAX(G87:H87)*$D$3+MIN(G87:H87)</f>
-        <v>240</v>
+        <f t="shared" si="6"/>
+        <v>136</v>
       </c>
       <c r="J87" s="45">
-        <f t="shared" si="4"/>
-        <v>84</v>
+        <f t="shared" si="8"/>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
@@ -13177,15 +12706,15 @@
       </c>
       <c r="H88" s="37">
         <f>F85*$D$3</f>
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="I88" s="38">
-        <f>MAX(G88:H88)*$D$3+MIN(G88:H88)</f>
-        <v>840</v>
+        <f t="shared" si="6"/>
+        <v>248</v>
       </c>
       <c r="J88" s="45">
-        <f t="shared" si="4"/>
-        <v>216</v>
+        <f t="shared" si="8"/>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
@@ -13197,7 +12726,7 @@
       </c>
       <c r="F89" s="31">
         <f>D85+1</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G89" s="31">
         <f>E89+1</f>
@@ -13205,15 +12734,15 @@
       </c>
       <c r="H89" s="31">
         <f>F89</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I89" s="32">
-        <f>MAX(G89:H89)*$D$3+MIN(G89:H89)</f>
-        <v>220</v>
+        <f t="shared" si="6"/>
+        <v>130</v>
       </c>
       <c r="J89" s="45">
-        <f t="shared" si="4"/>
-        <v>61</v>
+        <f t="shared" si="8"/>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
@@ -13221,7 +12750,7 @@
       <c r="D90" s="51"/>
       <c r="E90" s="33">
         <f>E89+F89</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F90" s="51"/>
       <c r="G90" s="51">
@@ -13230,15 +12759,15 @@
       </c>
       <c r="H90" s="51">
         <f>F89+1</f>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I90" s="35">
-        <f>MAX(G90:H90)*$D$3+MIN(G90:H90)</f>
-        <v>223</v>
+        <f t="shared" si="6"/>
+        <v>131</v>
       </c>
       <c r="J90" s="45">
-        <f t="shared" si="4"/>
-        <v>61</v>
+        <f t="shared" si="8"/>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.25">
@@ -13248,19 +12777,19 @@
       <c r="F91" s="51"/>
       <c r="G91" s="51">
         <f>E89*$D$3</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H91" s="51">
         <f>F89</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I91" s="35">
-        <f>MAX(G91:H91)*$D$3+MIN(G91:H91)</f>
-        <v>240</v>
+        <f t="shared" si="6"/>
+        <v>136</v>
       </c>
       <c r="J91" s="45">
-        <f t="shared" si="4"/>
-        <v>81</v>
+        <f t="shared" si="8"/>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
@@ -13274,15 +12803,15 @@
       </c>
       <c r="H92" s="37">
         <f>F89*$D$3</f>
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="I92" s="38">
-        <f>MAX(G92:H92)*$D$3+MIN(G92:H92)</f>
-        <v>855</v>
+        <f t="shared" si="6"/>
+        <v>251</v>
       </c>
       <c r="J92" s="45">
-        <f t="shared" si="4"/>
-        <v>219</v>
+        <f t="shared" si="8"/>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
@@ -13290,27 +12819,27 @@
       <c r="D93" s="51"/>
       <c r="E93" s="30">
         <f>C85*$D$3</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F93" s="31">
         <f>D85</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G93" s="31">
         <f>E93+1</f>
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H93" s="31">
         <f>F93</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I93" s="32">
-        <f>MAX(G93:H93)*$D$3+MIN(G93:H93)</f>
-        <v>237</v>
+        <f t="shared" si="6"/>
+        <v>135</v>
       </c>
       <c r="J93" s="45">
-        <f t="shared" si="4"/>
-        <v>81</v>
+        <f t="shared" si="8"/>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
@@ -13318,24 +12847,24 @@
       <c r="D94" s="51"/>
       <c r="E94" s="33">
         <f>E93+F93</f>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51">
         <f>E93</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H94" s="51">
         <f>F93+1</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I94" s="35">
-        <f>MAX(G94:H94)*$D$3+MIN(G94:H94)</f>
-        <v>240</v>
+        <f t="shared" si="6"/>
+        <v>136</v>
       </c>
       <c r="J94" s="45">
-        <f t="shared" si="4"/>
-        <v>81</v>
+        <f t="shared" si="8"/>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
@@ -13345,19 +12874,19 @@
       <c r="F95" s="51"/>
       <c r="G95" s="51">
         <f>E93*$D$3</f>
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="H95" s="51">
         <f>F93</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I95" s="35">
-        <f>MAX(G95:H95)*$D$3+MIN(G95:H95)</f>
-        <v>500</v>
+        <f t="shared" si="6"/>
+        <v>148</v>
       </c>
       <c r="J95" s="45">
-        <f t="shared" si="4"/>
-        <v>164</v>
+        <f t="shared" si="8"/>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
@@ -13367,19 +12896,19 @@
       <c r="F96" s="37"/>
       <c r="G96" s="37">
         <f>E93</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H96" s="37">
         <f>F93*$D$3</f>
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="I96" s="38">
-        <f>MAX(G96:H96)*$D$3+MIN(G96:H96)</f>
-        <v>860</v>
+        <f t="shared" si="6"/>
+        <v>254</v>
       </c>
       <c r="J96" s="45">
-        <f t="shared" si="4"/>
-        <v>236</v>
+        <f t="shared" si="8"/>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
@@ -13391,7 +12920,7 @@
       </c>
       <c r="F97" s="31">
         <f>D85*$D$3</f>
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="G97" s="31">
         <f>E97+1</f>
@@ -13399,15 +12928,15 @@
       </c>
       <c r="H97" s="31">
         <f>F97</f>
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="I97" s="32">
-        <f>MAX(G97:H97)*$D$3+MIN(G97:H97)</f>
-        <v>840</v>
+        <f t="shared" si="6"/>
+        <v>248</v>
       </c>
       <c r="J97" s="45">
-        <f t="shared" si="4"/>
-        <v>216</v>
+        <f t="shared" si="8"/>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
@@ -13415,7 +12944,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="33">
         <f>E97+F97</f>
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51">
@@ -13424,15 +12953,15 @@
       </c>
       <c r="H98" s="51">
         <f>F97+1</f>
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="I98" s="35">
-        <f>MAX(G98:H98)*$D$3+MIN(G98:H98)</f>
-        <v>843</v>
+        <f t="shared" si="6"/>
+        <v>249</v>
       </c>
       <c r="J98" s="45">
-        <f t="shared" si="4"/>
-        <v>216</v>
+        <f t="shared" si="8"/>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.25">
@@ -13442,19 +12971,19 @@
       <c r="F99" s="51"/>
       <c r="G99" s="51">
         <f>E97*$D$3</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H99" s="51">
         <f>F97</f>
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="I99" s="35">
-        <f>MAX(G99:H99)*$D$3+MIN(G99:H99)</f>
-        <v>860</v>
+        <f t="shared" si="6"/>
+        <v>254</v>
       </c>
       <c r="J99" s="45">
-        <f t="shared" si="4"/>
-        <v>236</v>
+        <f t="shared" si="8"/>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13468,162 +12997,162 @@
       </c>
       <c r="H100" s="37">
         <f>F97*$D$3</f>
-        <v>832</v>
+        <v>240</v>
       </c>
       <c r="I100" s="38">
-        <f>MAX(G100:H100)*$D$3+MIN(G100:H100)</f>
-        <v>3335</v>
+        <f t="shared" si="6"/>
+        <v>487</v>
       </c>
       <c r="J100" s="50">
         <f>H100+G100</f>
-        <v>839</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E10">
-    <cfRule type="cellIs" dxfId="76" priority="56" operator="greaterThanOrEqual">
-      <formula>$D$1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H16:H31">
-    <cfRule type="cellIs" dxfId="74" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:J100">
-    <cfRule type="cellIs" dxfId="72" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17 C21 C25 C29">
-    <cfRule type="cellIs" dxfId="42" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="36" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G19">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G23">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="24" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="23" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="22" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38 E42 E46 E50">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I40">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I44">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="19" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:I48">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="18" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I52">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="17" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54 E58 E62 E66">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:I56">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:I60">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I64">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:I68">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70 E74 E78 E82">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:I72">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:I76">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I80">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81:I84">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86 E90 E94 E98">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:I88">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:I92">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:I96">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97:I100">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>

--- a/tasks/task19-21/task19-21.xlsx
+++ b/tasks/task19-21/task19-21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="6600" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="task21-2" sheetId="7" r:id="rId7"/>
     <sheet name="Задание19" sheetId="8" r:id="rId8"/>
     <sheet name="Пробник" sheetId="10" r:id="rId9"/>
+    <sheet name="kpolyakov" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="41">
   <si>
     <t>П</t>
   </si>
@@ -558,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -739,11 +740,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="108">
     <dxf>
       <fill>
         <patternFill>
@@ -1133,13 +1140,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3345,6 +3345,2364 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="60">
+        <v>61</v>
+      </c>
+      <c r="F1" s="60">
+        <v>77</v>
+      </c>
+      <c r="G1" s="60">
+        <v>125</v>
+      </c>
+      <c r="H1" s="60">
+        <v>82</v>
+      </c>
+      <c r="I1" s="60">
+        <v>61</v>
+      </c>
+      <c r="J1" s="60">
+        <v>77</v>
+      </c>
+      <c r="K1" s="60">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="C2" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="60">
+        <v>1</v>
+      </c>
+      <c r="F2" s="60">
+        <v>1</v>
+      </c>
+      <c r="G2" s="60">
+        <v>1</v>
+      </c>
+      <c r="H2" s="60">
+        <v>1</v>
+      </c>
+      <c r="I2" s="60">
+        <v>1</v>
+      </c>
+      <c r="J2" s="60">
+        <v>1</v>
+      </c>
+      <c r="K2" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="C3" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="60">
+        <v>2</v>
+      </c>
+      <c r="F3" s="60">
+        <v>2</v>
+      </c>
+      <c r="G3" s="60">
+        <v>4</v>
+      </c>
+      <c r="H3" s="60">
+        <v>4</v>
+      </c>
+      <c r="I3" s="60">
+        <v>4</v>
+      </c>
+      <c r="J3" s="60">
+        <v>2</v>
+      </c>
+      <c r="K3" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="60">
+        <v>10</v>
+      </c>
+      <c r="F4" s="60">
+        <v>7</v>
+      </c>
+      <c r="G4" s="60">
+        <v>7</v>
+      </c>
+      <c r="H4" s="60">
+        <v>4</v>
+      </c>
+      <c r="I4" s="60">
+        <v>3</v>
+      </c>
+      <c r="J4" s="60">
+        <v>7</v>
+      </c>
+      <c r="K4" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <f>$D$4</f>
+        <v>10</v>
+      </c>
+      <c r="B7" s="57">
+        <v>13</v>
+      </c>
+      <c r="C7" s="31">
+        <f>A7+1</f>
+        <v>11</v>
+      </c>
+      <c r="D7" s="31">
+        <f>B7</f>
+        <v>13</v>
+      </c>
+      <c r="E7" s="61">
+        <f>MAX(C7,D7)*$D$3+MIN(C7,D7)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59">
+        <f>A7</f>
+        <v>10</v>
+      </c>
+      <c r="D8" s="59">
+        <f>B7+1</f>
+        <v>14</v>
+      </c>
+      <c r="E8" s="61">
+        <f t="shared" ref="E8:E10" si="0">MAX(C8,D8)*$D$3+MIN(C8,D8)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59">
+        <f>A7*$D$3</f>
+        <v>20</v>
+      </c>
+      <c r="D9" s="59">
+        <f>B7</f>
+        <v>13</v>
+      </c>
+      <c r="E9" s="61">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37">
+        <f>A7</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="37">
+        <f>B7*$D$3</f>
+        <v>26</v>
+      </c>
+      <c r="E10" s="61">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="26">
+        <v>20</v>
+      </c>
+      <c r="D14" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="60">
+        <f>$D$4</f>
+        <v>10</v>
+      </c>
+      <c r="B16" s="58">
+        <v>20</v>
+      </c>
+      <c r="C16" s="30">
+        <f>A16+1</f>
+        <v>11</v>
+      </c>
+      <c r="D16" s="31">
+        <f>B16</f>
+        <v>20</v>
+      </c>
+      <c r="E16" s="31">
+        <f>C16+1</f>
+        <v>12</v>
+      </c>
+      <c r="F16" s="31">
+        <f>D16</f>
+        <v>20</v>
+      </c>
+      <c r="G16" s="32">
+        <f t="shared" ref="G16:G31" si="1">MAX(E16:F16)*$D$3+MIN(E16:F16)</f>
+        <v>52</v>
+      </c>
+      <c r="H16" s="60">
+        <f t="shared" ref="H16:H30" si="2">F16+E16</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="33">
+        <f>C16+D16</f>
+        <v>31</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59">
+        <f>C16</f>
+        <v>11</v>
+      </c>
+      <c r="F17" s="59">
+        <f>D16+1</f>
+        <v>21</v>
+      </c>
+      <c r="G17" s="35">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="H17" s="60">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="33"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59">
+        <f>C16*$D$3</f>
+        <v>22</v>
+      </c>
+      <c r="F18" s="59">
+        <f>D16</f>
+        <v>20</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="H18" s="60">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37">
+        <f>C16</f>
+        <v>11</v>
+      </c>
+      <c r="F19" s="37">
+        <f>D16*$D$3</f>
+        <v>40</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="H19" s="60">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="30">
+        <f>A16</f>
+        <v>10</v>
+      </c>
+      <c r="D20" s="31">
+        <f>B16+1</f>
+        <v>21</v>
+      </c>
+      <c r="E20" s="31">
+        <f>C20+1</f>
+        <v>11</v>
+      </c>
+      <c r="F20" s="31">
+        <f>D20</f>
+        <v>21</v>
+      </c>
+      <c r="G20" s="32">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="H20" s="60">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="33">
+        <f>C20+D20</f>
+        <v>31</v>
+      </c>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59">
+        <f>C20</f>
+        <v>10</v>
+      </c>
+      <c r="F21" s="59">
+        <f>D20+1</f>
+        <v>22</v>
+      </c>
+      <c r="G21" s="35">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="H21" s="60">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="33"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59">
+        <f>C20*$D$3</f>
+        <v>20</v>
+      </c>
+      <c r="F22" s="59">
+        <f>D20</f>
+        <v>21</v>
+      </c>
+      <c r="G22" s="35">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="H22" s="60">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37">
+        <f>C20</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="37">
+        <f>D20*$D$3</f>
+        <v>42</v>
+      </c>
+      <c r="G23" s="38">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="H23" s="60">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="30">
+        <f>A16*$D$3</f>
+        <v>20</v>
+      </c>
+      <c r="D24" s="31">
+        <f>B16</f>
+        <v>20</v>
+      </c>
+      <c r="E24" s="31">
+        <f>C24+1</f>
+        <v>21</v>
+      </c>
+      <c r="F24" s="31">
+        <f>D24</f>
+        <v>20</v>
+      </c>
+      <c r="G24" s="32">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="H24" s="60">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="33">
+        <f>C24+D24</f>
+        <v>40</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59">
+        <f>C24</f>
+        <v>20</v>
+      </c>
+      <c r="F25" s="59">
+        <f>D24+1</f>
+        <v>21</v>
+      </c>
+      <c r="G25" s="35">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="H25" s="60">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="33"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59">
+        <f>C24*$D$3</f>
+        <v>40</v>
+      </c>
+      <c r="F26" s="59">
+        <f>D24</f>
+        <v>20</v>
+      </c>
+      <c r="G26" s="35">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H26" s="60">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37">
+        <f>C24</f>
+        <v>20</v>
+      </c>
+      <c r="F27" s="37">
+        <f>D24*$D$3</f>
+        <v>40</v>
+      </c>
+      <c r="G27" s="38">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H27" s="60">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="30">
+        <f>A16</f>
+        <v>10</v>
+      </c>
+      <c r="D28" s="31">
+        <f>B16*$D$3</f>
+        <v>40</v>
+      </c>
+      <c r="E28" s="31">
+        <f>C28+1</f>
+        <v>11</v>
+      </c>
+      <c r="F28" s="31">
+        <f>D28</f>
+        <v>40</v>
+      </c>
+      <c r="G28" s="32">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="H28" s="60">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="33">
+        <f>C28+D28</f>
+        <v>50</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59">
+        <f>C28</f>
+        <v>10</v>
+      </c>
+      <c r="F29" s="59">
+        <f>D28+1</f>
+        <v>41</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="H29" s="60">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="33"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59">
+        <f>C28*$D$3</f>
+        <v>20</v>
+      </c>
+      <c r="F30" s="59">
+        <f>D28</f>
+        <v>40</v>
+      </c>
+      <c r="G30" s="35">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H30" s="60">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37">
+        <f>C28</f>
+        <v>10</v>
+      </c>
+      <c r="F31" s="37">
+        <f>D28*$D$3</f>
+        <v>80</v>
+      </c>
+      <c r="G31" s="38">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="H31" s="60">
+        <f>F31+E31</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="63"/>
+      <c r="E36" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="62"/>
+      <c r="I36" s="60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="60">
+        <f>$D$4</f>
+        <v>10</v>
+      </c>
+      <c r="B37" s="58">
+        <v>12</v>
+      </c>
+      <c r="C37" s="39">
+        <f>A37+1</f>
+        <v>11</v>
+      </c>
+      <c r="D37" s="40">
+        <f>B37</f>
+        <v>12</v>
+      </c>
+      <c r="E37" s="30">
+        <f>C37+1</f>
+        <v>12</v>
+      </c>
+      <c r="F37" s="31">
+        <f>D37</f>
+        <v>12</v>
+      </c>
+      <c r="G37" s="31">
+        <f>E37+1</f>
+        <v>13</v>
+      </c>
+      <c r="H37" s="31">
+        <f>F37</f>
+        <v>12</v>
+      </c>
+      <c r="I37" s="32">
+        <f t="shared" ref="I37:I100" si="3">MAX(G37:H37)*$D$3+MIN(G37:H37)</f>
+        <v>38</v>
+      </c>
+      <c r="J37" s="43">
+        <f t="shared" ref="J37:J51" si="4">H37+G37</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="44"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="33">
+        <f>E37+F37</f>
+        <v>24</v>
+      </c>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59">
+        <f>E37</f>
+        <v>12</v>
+      </c>
+      <c r="H38" s="59">
+        <f>F37+1</f>
+        <v>13</v>
+      </c>
+      <c r="I38" s="35">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="J38" s="45">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="44"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59">
+        <f>E37*$D$3</f>
+        <v>24</v>
+      </c>
+      <c r="H39" s="59">
+        <f>F37</f>
+        <v>12</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="J39" s="45">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="44"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37">
+        <f>E37</f>
+        <v>12</v>
+      </c>
+      <c r="H40" s="37">
+        <f>F37*$D$3</f>
+        <v>24</v>
+      </c>
+      <c r="I40" s="38">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="J40" s="45">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="44"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="30">
+        <f>C37</f>
+        <v>11</v>
+      </c>
+      <c r="F41" s="31">
+        <f>D37+1</f>
+        <v>13</v>
+      </c>
+      <c r="G41" s="31">
+        <f>E41+1</f>
+        <v>12</v>
+      </c>
+      <c r="H41" s="31">
+        <f>F41</f>
+        <v>13</v>
+      </c>
+      <c r="I41" s="32">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="J41" s="45">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="44"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="33">
+        <f>E41+F41</f>
+        <v>24</v>
+      </c>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59">
+        <f>E41</f>
+        <v>11</v>
+      </c>
+      <c r="H42" s="59">
+        <f>F41+1</f>
+        <v>14</v>
+      </c>
+      <c r="I42" s="35">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="J42" s="45">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="44"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59">
+        <f>E41*$D$3</f>
+        <v>22</v>
+      </c>
+      <c r="H43" s="59">
+        <f>F41</f>
+        <v>13</v>
+      </c>
+      <c r="I43" s="35">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="J43" s="45">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="44"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37">
+        <f>E41</f>
+        <v>11</v>
+      </c>
+      <c r="H44" s="37">
+        <f>F41*$D$3</f>
+        <v>26</v>
+      </c>
+      <c r="I44" s="38">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="J44" s="45">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="44"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="30">
+        <f>C37*$D$3</f>
+        <v>22</v>
+      </c>
+      <c r="F45" s="31">
+        <f>D37</f>
+        <v>12</v>
+      </c>
+      <c r="G45" s="31">
+        <f>E45+1</f>
+        <v>23</v>
+      </c>
+      <c r="H45" s="31">
+        <f>F45</f>
+        <v>12</v>
+      </c>
+      <c r="I45" s="32">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="J45" s="45">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="44"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="33">
+        <f>E45+F45</f>
+        <v>34</v>
+      </c>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59">
+        <f>E45</f>
+        <v>22</v>
+      </c>
+      <c r="H46" s="59">
+        <f>F45+1</f>
+        <v>13</v>
+      </c>
+      <c r="I46" s="35">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="J46" s="45">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="44"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59">
+        <f>E45*$D$3</f>
+        <v>44</v>
+      </c>
+      <c r="H47" s="59">
+        <f>F45</f>
+        <v>12</v>
+      </c>
+      <c r="I47" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J47" s="45">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="44"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37">
+        <f>E45</f>
+        <v>22</v>
+      </c>
+      <c r="H48" s="37">
+        <f>F45*$D$3</f>
+        <v>24</v>
+      </c>
+      <c r="I48" s="38">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J48" s="45">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="44"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="30">
+        <f>C37</f>
+        <v>11</v>
+      </c>
+      <c r="F49" s="31">
+        <f>D37*$D$3</f>
+        <v>24</v>
+      </c>
+      <c r="G49" s="31">
+        <f>E49+1</f>
+        <v>12</v>
+      </c>
+      <c r="H49" s="31">
+        <f>F49</f>
+        <v>24</v>
+      </c>
+      <c r="I49" s="32">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="J49" s="45">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="44"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="33">
+        <f>E49+F49</f>
+        <v>35</v>
+      </c>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59">
+        <f>E49</f>
+        <v>11</v>
+      </c>
+      <c r="H50" s="59">
+        <f>F49+1</f>
+        <v>25</v>
+      </c>
+      <c r="I50" s="35">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="J50" s="45">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="44"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59">
+        <f>E49*$D$3</f>
+        <v>22</v>
+      </c>
+      <c r="H51" s="59">
+        <f>F49</f>
+        <v>24</v>
+      </c>
+      <c r="I51" s="35">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J51" s="45">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37">
+        <f>E49</f>
+        <v>11</v>
+      </c>
+      <c r="H52" s="37">
+        <f>F49*$D$3</f>
+        <v>48</v>
+      </c>
+      <c r="I52" s="38">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="J52" s="50">
+        <f>H52+G52</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="39">
+        <f>A37</f>
+        <v>10</v>
+      </c>
+      <c r="D53" s="40">
+        <f>B37+1</f>
+        <v>13</v>
+      </c>
+      <c r="E53" s="30">
+        <f>C53+1</f>
+        <v>11</v>
+      </c>
+      <c r="F53" s="31">
+        <f>D53</f>
+        <v>13</v>
+      </c>
+      <c r="G53" s="31">
+        <f>E53+1</f>
+        <v>12</v>
+      </c>
+      <c r="H53" s="31">
+        <f>F53</f>
+        <v>13</v>
+      </c>
+      <c r="I53" s="32">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="J53" s="43">
+        <f t="shared" ref="J53:J67" si="5">H53+G53</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="44"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="33">
+        <f>E53+F53</f>
+        <v>24</v>
+      </c>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59">
+        <f>E53</f>
+        <v>11</v>
+      </c>
+      <c r="H54" s="59">
+        <f>F53+1</f>
+        <v>14</v>
+      </c>
+      <c r="I54" s="35">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="J54" s="45">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="44"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59">
+        <f>E53*$D$3</f>
+        <v>22</v>
+      </c>
+      <c r="H55" s="59">
+        <f>F53</f>
+        <v>13</v>
+      </c>
+      <c r="I55" s="35">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="J55" s="45">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="44"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37">
+        <f>E53</f>
+        <v>11</v>
+      </c>
+      <c r="H56" s="37">
+        <f>F53*$D$3</f>
+        <v>26</v>
+      </c>
+      <c r="I56" s="38">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="J56" s="45">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="44"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="30">
+        <f>C53</f>
+        <v>10</v>
+      </c>
+      <c r="F57" s="31">
+        <f>D53+1</f>
+        <v>14</v>
+      </c>
+      <c r="G57" s="31">
+        <f>E57+1</f>
+        <v>11</v>
+      </c>
+      <c r="H57" s="31">
+        <f>F57</f>
+        <v>14</v>
+      </c>
+      <c r="I57" s="32">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="J57" s="45">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="44"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="33">
+        <f>E57+F57</f>
+        <v>24</v>
+      </c>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59">
+        <f>E57</f>
+        <v>10</v>
+      </c>
+      <c r="H58" s="59">
+        <f>F57+1</f>
+        <v>15</v>
+      </c>
+      <c r="I58" s="35">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="J58" s="45">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="44"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59">
+        <f>E57*$D$3</f>
+        <v>20</v>
+      </c>
+      <c r="H59" s="59">
+        <f>F57</f>
+        <v>14</v>
+      </c>
+      <c r="I59" s="35">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="J59" s="45">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="44"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37">
+        <f>E57</f>
+        <v>10</v>
+      </c>
+      <c r="H60" s="37">
+        <f>F57*$D$3</f>
+        <v>28</v>
+      </c>
+      <c r="I60" s="38">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="J60" s="45">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="44"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="30">
+        <f>C53*$D$3</f>
+        <v>20</v>
+      </c>
+      <c r="F61" s="31">
+        <f>D53</f>
+        <v>13</v>
+      </c>
+      <c r="G61" s="31">
+        <f>E61+1</f>
+        <v>21</v>
+      </c>
+      <c r="H61" s="31">
+        <f>F61</f>
+        <v>13</v>
+      </c>
+      <c r="I61" s="32">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="J61" s="45">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="44"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="33">
+        <f>E61+F61</f>
+        <v>33</v>
+      </c>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59">
+        <f>E61</f>
+        <v>20</v>
+      </c>
+      <c r="H62" s="59">
+        <f>F61+1</f>
+        <v>14</v>
+      </c>
+      <c r="I62" s="35">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="J62" s="45">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="44"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59">
+        <f>E61*$D$3</f>
+        <v>40</v>
+      </c>
+      <c r="H63" s="59">
+        <f>F61</f>
+        <v>13</v>
+      </c>
+      <c r="I63" s="35">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="J63" s="45">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="44"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37">
+        <f>E61</f>
+        <v>20</v>
+      </c>
+      <c r="H64" s="37">
+        <f>F61*$D$3</f>
+        <v>26</v>
+      </c>
+      <c r="I64" s="38">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="J64" s="45">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="44"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="30">
+        <f>C53</f>
+        <v>10</v>
+      </c>
+      <c r="F65" s="31">
+        <f>D53*$D$3</f>
+        <v>26</v>
+      </c>
+      <c r="G65" s="31">
+        <f>E65+1</f>
+        <v>11</v>
+      </c>
+      <c r="H65" s="31">
+        <f>F65</f>
+        <v>26</v>
+      </c>
+      <c r="I65" s="32">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="J65" s="45">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="44"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="33">
+        <f>E65+F65</f>
+        <v>36</v>
+      </c>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59">
+        <f>E65</f>
+        <v>10</v>
+      </c>
+      <c r="H66" s="59">
+        <f>F65+1</f>
+        <v>27</v>
+      </c>
+      <c r="I66" s="35">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="J66" s="45">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="44"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59">
+        <f>E65*$D$3</f>
+        <v>20</v>
+      </c>
+      <c r="H67" s="59">
+        <f>F65</f>
+        <v>26</v>
+      </c>
+      <c r="I67" s="35">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="J67" s="45">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37">
+        <f>E65</f>
+        <v>10</v>
+      </c>
+      <c r="H68" s="37">
+        <f>F65*$D$3</f>
+        <v>52</v>
+      </c>
+      <c r="I68" s="38">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="J68" s="50">
+        <f>H68+G68</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="39">
+        <f>A37*$D$3</f>
+        <v>20</v>
+      </c>
+      <c r="D69" s="40">
+        <f>B37</f>
+        <v>12</v>
+      </c>
+      <c r="E69" s="30">
+        <f>C69+1</f>
+        <v>21</v>
+      </c>
+      <c r="F69" s="31">
+        <f>D69</f>
+        <v>12</v>
+      </c>
+      <c r="G69" s="31">
+        <f>E69+1</f>
+        <v>22</v>
+      </c>
+      <c r="H69" s="31">
+        <f>F69</f>
+        <v>12</v>
+      </c>
+      <c r="I69" s="32">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="J69" s="43">
+        <f t="shared" ref="J69:J83" si="6">H69+G69</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="44"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="33">
+        <f>E69+F69</f>
+        <v>33</v>
+      </c>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59">
+        <f>E69</f>
+        <v>21</v>
+      </c>
+      <c r="H70" s="59">
+        <f>F69+1</f>
+        <v>13</v>
+      </c>
+      <c r="I70" s="35">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="J70" s="45">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="44"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59">
+        <f>E69*$D$3</f>
+        <v>42</v>
+      </c>
+      <c r="H71" s="59">
+        <f>F69</f>
+        <v>12</v>
+      </c>
+      <c r="I71" s="35">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="J71" s="45">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="44"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37">
+        <f>E69</f>
+        <v>21</v>
+      </c>
+      <c r="H72" s="37">
+        <f>F69*$D$3</f>
+        <v>24</v>
+      </c>
+      <c r="I72" s="38">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="J72" s="45">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="44"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="30">
+        <f>C69</f>
+        <v>20</v>
+      </c>
+      <c r="F73" s="31">
+        <f>D69+1</f>
+        <v>13</v>
+      </c>
+      <c r="G73" s="31">
+        <f>E73+1</f>
+        <v>21</v>
+      </c>
+      <c r="H73" s="31">
+        <f>F73</f>
+        <v>13</v>
+      </c>
+      <c r="I73" s="32">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="J73" s="45">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="44"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="33">
+        <f>E73+F73</f>
+        <v>33</v>
+      </c>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59">
+        <f>E73</f>
+        <v>20</v>
+      </c>
+      <c r="H74" s="59">
+        <f>F73+1</f>
+        <v>14</v>
+      </c>
+      <c r="I74" s="35">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="J74" s="45">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="44"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59">
+        <f>E73*$D$3</f>
+        <v>40</v>
+      </c>
+      <c r="H75" s="59">
+        <f>F73</f>
+        <v>13</v>
+      </c>
+      <c r="I75" s="35">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="J75" s="45">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="44"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37">
+        <f>E73</f>
+        <v>20</v>
+      </c>
+      <c r="H76" s="37">
+        <f>F73*$D$3</f>
+        <v>26</v>
+      </c>
+      <c r="I76" s="38">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="J76" s="45">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="44"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="30">
+        <f>C69*$D$3</f>
+        <v>40</v>
+      </c>
+      <c r="F77" s="31">
+        <f>D69</f>
+        <v>12</v>
+      </c>
+      <c r="G77" s="31">
+        <f>E77+1</f>
+        <v>41</v>
+      </c>
+      <c r="H77" s="31">
+        <f>F77</f>
+        <v>12</v>
+      </c>
+      <c r="I77" s="32">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="J77" s="45">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="44"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="33">
+        <f>E77+F77</f>
+        <v>52</v>
+      </c>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59">
+        <f>E77</f>
+        <v>40</v>
+      </c>
+      <c r="H78" s="59">
+        <f>F77+1</f>
+        <v>13</v>
+      </c>
+      <c r="I78" s="35">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="J78" s="45">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="44"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59">
+        <f>E77*$D$3</f>
+        <v>80</v>
+      </c>
+      <c r="H79" s="59">
+        <f>F77</f>
+        <v>12</v>
+      </c>
+      <c r="I79" s="35">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+      <c r="J79" s="45">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="44"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37">
+        <f>E77</f>
+        <v>40</v>
+      </c>
+      <c r="H80" s="37">
+        <f>F77*$D$3</f>
+        <v>24</v>
+      </c>
+      <c r="I80" s="38">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="J80" s="45">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="44"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="30">
+        <f>C69</f>
+        <v>20</v>
+      </c>
+      <c r="F81" s="31">
+        <f>D69*$D$3</f>
+        <v>24</v>
+      </c>
+      <c r="G81" s="31">
+        <f>E81+1</f>
+        <v>21</v>
+      </c>
+      <c r="H81" s="31">
+        <f>F81</f>
+        <v>24</v>
+      </c>
+      <c r="I81" s="32">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="J81" s="45">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C82" s="44"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="33">
+        <f>E81+F81</f>
+        <v>44</v>
+      </c>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59">
+        <f>E81</f>
+        <v>20</v>
+      </c>
+      <c r="H82" s="59">
+        <f>F81+1</f>
+        <v>25</v>
+      </c>
+      <c r="I82" s="35">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J82" s="45">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="44"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59">
+        <f>E81*$D$3</f>
+        <v>40</v>
+      </c>
+      <c r="H83" s="59">
+        <f>F81</f>
+        <v>24</v>
+      </c>
+      <c r="I83" s="35">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="J83" s="45">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="46"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37">
+        <f>E81</f>
+        <v>20</v>
+      </c>
+      <c r="H84" s="37">
+        <f>F81*$D$3</f>
+        <v>48</v>
+      </c>
+      <c r="I84" s="38">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="J84" s="50">
+        <f>H84+G84</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="39">
+        <v>7</v>
+      </c>
+      <c r="D85" s="40">
+        <f>B37*$D$3</f>
+        <v>24</v>
+      </c>
+      <c r="E85" s="30">
+        <f>C85+1</f>
+        <v>8</v>
+      </c>
+      <c r="F85" s="31">
+        <f>D85</f>
+        <v>24</v>
+      </c>
+      <c r="G85" s="31">
+        <f>E85+1</f>
+        <v>9</v>
+      </c>
+      <c r="H85" s="31">
+        <f>F85</f>
+        <v>24</v>
+      </c>
+      <c r="I85" s="32">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="J85" s="43">
+        <f t="shared" ref="J85:J99" si="7">H85+G85</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="44"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="33">
+        <f>E85+F85</f>
+        <v>32</v>
+      </c>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59">
+        <f>E85</f>
+        <v>8</v>
+      </c>
+      <c r="H86" s="59">
+        <f>F85+1</f>
+        <v>25</v>
+      </c>
+      <c r="I86" s="35">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="J86" s="45">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="44"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59">
+        <f>E85*$D$3</f>
+        <v>16</v>
+      </c>
+      <c r="H87" s="59">
+        <f>F85</f>
+        <v>24</v>
+      </c>
+      <c r="I87" s="35">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="J87" s="45">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="44"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37">
+        <f>E85</f>
+        <v>8</v>
+      </c>
+      <c r="H88" s="37">
+        <f>F85*$D$3</f>
+        <v>48</v>
+      </c>
+      <c r="I88" s="38">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="J88" s="45">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="44"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="30">
+        <f>C85</f>
+        <v>7</v>
+      </c>
+      <c r="F89" s="31">
+        <f>D85+1</f>
+        <v>25</v>
+      </c>
+      <c r="G89" s="31">
+        <f>E89+1</f>
+        <v>8</v>
+      </c>
+      <c r="H89" s="31">
+        <f>F89</f>
+        <v>25</v>
+      </c>
+      <c r="I89" s="32">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="J89" s="45">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C90" s="44"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="33">
+        <f>E89+F89</f>
+        <v>32</v>
+      </c>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59">
+        <f>E89</f>
+        <v>7</v>
+      </c>
+      <c r="H90" s="59">
+        <f>F89+1</f>
+        <v>26</v>
+      </c>
+      <c r="I90" s="35">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="J90" s="45">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C91" s="44"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59">
+        <f>E89*$D$3</f>
+        <v>14</v>
+      </c>
+      <c r="H91" s="59">
+        <f>F89</f>
+        <v>25</v>
+      </c>
+      <c r="I91" s="35">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="J91" s="45">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="44"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37">
+        <f>E89</f>
+        <v>7</v>
+      </c>
+      <c r="H92" s="37">
+        <f>F89*$D$3</f>
+        <v>50</v>
+      </c>
+      <c r="I92" s="38">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="J92" s="45">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="44"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="30">
+        <f>C85*$D$3</f>
+        <v>14</v>
+      </c>
+      <c r="F93" s="31">
+        <f>D85</f>
+        <v>24</v>
+      </c>
+      <c r="G93" s="31">
+        <f>E93+1</f>
+        <v>15</v>
+      </c>
+      <c r="H93" s="31">
+        <f>F93</f>
+        <v>24</v>
+      </c>
+      <c r="I93" s="32">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="J93" s="45">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="44"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="33">
+        <f>E93+F93</f>
+        <v>38</v>
+      </c>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59">
+        <f>E93</f>
+        <v>14</v>
+      </c>
+      <c r="H94" s="59">
+        <f>F93+1</f>
+        <v>25</v>
+      </c>
+      <c r="I94" s="35">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="J94" s="45">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="44"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59">
+        <f>E93*$D$3</f>
+        <v>28</v>
+      </c>
+      <c r="H95" s="59">
+        <f>F93</f>
+        <v>24</v>
+      </c>
+      <c r="I95" s="35">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J95" s="45">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="44"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37">
+        <f>E93</f>
+        <v>14</v>
+      </c>
+      <c r="H96" s="37">
+        <f>F93*$D$3</f>
+        <v>48</v>
+      </c>
+      <c r="I96" s="38">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="J96" s="45">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="44"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="30">
+        <f>C85</f>
+        <v>7</v>
+      </c>
+      <c r="F97" s="31">
+        <f>D85*$D$3</f>
+        <v>48</v>
+      </c>
+      <c r="G97" s="31">
+        <f>E97+1</f>
+        <v>8</v>
+      </c>
+      <c r="H97" s="31">
+        <f>F97</f>
+        <v>48</v>
+      </c>
+      <c r="I97" s="32">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="J97" s="45">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="44"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="33">
+        <f>E97+F97</f>
+        <v>55</v>
+      </c>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59">
+        <f>E97</f>
+        <v>7</v>
+      </c>
+      <c r="H98" s="59">
+        <f>F97+1</f>
+        <v>49</v>
+      </c>
+      <c r="I98" s="35">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="J98" s="45">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C99" s="44"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59">
+        <f>E97*$D$3</f>
+        <v>14</v>
+      </c>
+      <c r="H99" s="59">
+        <f>F97</f>
+        <v>48</v>
+      </c>
+      <c r="I99" s="35">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="J99" s="45">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="46"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37">
+        <f>E97</f>
+        <v>7</v>
+      </c>
+      <c r="H100" s="37">
+        <f>F97*$D$3</f>
+        <v>96</v>
+      </c>
+      <c r="I100" s="38">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="J100" s="50">
+        <f>H100+G100</f>
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H16:H31">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:J100">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17 C21 C25 C29">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G19">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G23">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G27">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G31">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38 E42 E46 E50">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I40">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I44">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:I48">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:I52">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54 E58 E62 E66">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:I56">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:I60">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:I64">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65:I68">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70 E74 E78 E82">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:I72">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:I76">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77:I80">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81:I84">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86 E90 E94 E98">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85:I88">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89:I92">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I93:I96">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97:I100">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:K43"/>
@@ -4703,7 +7061,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H8:K43">
-    <cfRule type="cellIs" dxfId="108" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="greaterThan">
       <formula>124</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5105,7 +7463,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5794,12 +8152,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="2" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:J33">
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7058,12 +9416,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B25:B29 B1:B16 B18:B22 B32:B1048576">
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F39 I12:I39 L12:L39 O12:O39">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7737,12 +10095,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:J33">
-    <cfRule type="cellIs" dxfId="101" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8489,12 +10847,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:J33">
-    <cfRule type="cellIs" dxfId="99" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8539,10 +10897,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="24" t="s">
         <v>33</v>
       </c>
@@ -8623,14 +10981,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60" t="s">
+      <c r="D15" s="63"/>
+      <c r="E15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="60"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="24" t="s">
         <v>32</v>
       </c>
@@ -8994,18 +11352,18 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="59" t="s">
+      <c r="D36" s="63"/>
+      <c r="E36" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="59"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="24" t="s">
         <v>33</v>
       </c>
@@ -10602,212 +12960,212 @@
     <mergeCell ref="E36:F36"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E10">
-    <cfRule type="cellIs" dxfId="98" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="42" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G19">
-    <cfRule type="cellIs" dxfId="97" priority="41" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="96" priority="41" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G23">
-    <cfRule type="cellIs" dxfId="96" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="40" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="cellIs" dxfId="95" priority="39" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="94" priority="39" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31">
-    <cfRule type="cellIs" dxfId="94" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="93" priority="38" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H31">
-    <cfRule type="cellIs" dxfId="93" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="92" priority="37" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I40">
-    <cfRule type="cellIs" dxfId="92" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="36" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I44">
-    <cfRule type="cellIs" dxfId="91" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="90" priority="35" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:I48">
-    <cfRule type="cellIs" dxfId="90" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="34" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I52">
-    <cfRule type="cellIs" dxfId="89" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="33" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:J52">
-    <cfRule type="cellIs" dxfId="88" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="32" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:I56">
-    <cfRule type="cellIs" dxfId="87" priority="31" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="31" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:I60">
-    <cfRule type="cellIs" dxfId="86" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="85" priority="30" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I64">
-    <cfRule type="cellIs" dxfId="85" priority="29" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="29" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:I68">
-    <cfRule type="cellIs" dxfId="84" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="28" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:J68">
-    <cfRule type="cellIs" dxfId="83" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="27" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:I72">
-    <cfRule type="cellIs" dxfId="82" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="81" priority="26" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:I76">
-    <cfRule type="cellIs" dxfId="81" priority="25" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="25" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I80">
-    <cfRule type="cellIs" dxfId="80" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="79" priority="24" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81:I84">
-    <cfRule type="cellIs" dxfId="79" priority="23" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="23" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:J84">
-    <cfRule type="cellIs" dxfId="78" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="22" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:I88">
-    <cfRule type="cellIs" dxfId="77" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="21" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:I92">
-    <cfRule type="cellIs" dxfId="76" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="20" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:I96">
-    <cfRule type="cellIs" dxfId="75" priority="19" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97:I100">
-    <cfRule type="cellIs" dxfId="74" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="18" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85:J100">
-    <cfRule type="cellIs" dxfId="73" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="17" operator="greaterThanOrEqual">
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="72" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="16" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="71" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="15" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="70" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="69" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="68" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="67" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="65" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="64" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="63" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
       <formula>76</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10819,7 +13177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -10937,10 +13295,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="29" t="s">
         <v>33</v>
       </c>
@@ -11026,14 +13384,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60" t="s">
+      <c r="D15" s="63"/>
+      <c r="E15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="60"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="29" t="s">
         <v>32</v>
       </c>
@@ -11410,18 +13768,18 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="59" t="s">
+      <c r="D36" s="63"/>
+      <c r="E36" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="59"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="29" t="s">
         <v>33</v>
       </c>
@@ -13153,7 +15511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThanOrEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
